--- a/docs/odh/shr-core-LandmarkLocation-extension.xlsx
+++ b/docs/odh/shr-core-LandmarkLocation-extension.xlsx
@@ -137,7 +137,7 @@
     <t>LandmarkLocation</t>
   </si>
   <si>
-    <t>The body location of the landmark.</t>
+    <t>The body location of the landmark, specified by a location code and optional laterality and orientation.</t>
   </si>
   <si>
     <t>1</t>
@@ -187,34 +187,48 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>locationcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-LocationCode-extension]]} {[]}
+    <t>code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Code-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Code for the body location, optionally pre-coordinating laterality or direction.</t>
+    <t>The main type identifier for a lab, procedure, condition, etc., usually drawn from a controlled vocabulary.</t>
   </si>
   <si>
     <t>laterality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Laterality-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.</t>
+    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
+The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
     <t>orientation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Orientation-extension]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Orientation-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.</t>
+    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.
+The orientation element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -230,7 +244,7 @@
     <t>Source of the definition for the extension code - a logical name or a URL.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-LandmarkLocation-extension"/&gt;</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-LandmarkLocation-extension"/&gt;</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -392,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -402,7 +416,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.58203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>

--- a/docs/odh/shr-core-LandmarkLocation-extension.xlsx
+++ b/docs/odh/shr-core-LandmarkLocation-extension.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="78">
   <si>
     <t>Path</t>
   </si>
@@ -138,30 +138,30 @@
   </si>
   <si>
     <t>The body location of the landmark, specified by a location code and optional laterality and orientation.</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {children().count() &gt; id.count()}
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -170,17 +170,30 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
@@ -190,7 +203,7 @@
     <t>code</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Code-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Code-extension}
 </t>
   </si>
   <si>
@@ -200,7 +213,7 @@
     <t>laterality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Laterality-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Laterality-extension}
 </t>
   </si>
   <si>
@@ -217,7 +230,7 @@
     <t>orientation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Orientation-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Orientation-extension}
 </t>
   </si>
   <si>
@@ -234,7 +247,7 @@
     <t>Extension.url</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -244,20 +257,23 @@
     <t>Source of the definition for the extension code - a logical name or a URL.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-LandmarkLocation-extension"/&gt;</t>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-LandmarkLocation-extension</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>base64Binary {[]} {[]}
-boolean {[]} {[]}code {[]} {[]}date {[]} {[]}dateTime {[]} {[]}decimal {[]} {[]}id {[]} {[]}instant {[]} {[]}integer {[]} {[]}markdown {[]} {[]}oid {[]} {[]}positiveInt {[]} {[]}string {[]} {[]}time {[]} {[]}unsignedInt {[]} {[]}uri {[]} {[]}Address {[]} {[]}Age {[]} {[]}Annotation {[]} {[]}Attachment {[]} {[]}CodeableConcept {[]} {[]}Coding {[]} {[]}ContactPoint {[]} {[]}Count {[]} {[]}Distance {[]} {[]}Duration {[]} {[]}HumanName {[]} {[]}Identifier {[]} {[]}Money {[]} {[]}Period {[]} {[]}Quantity {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}Reference {[]} {[]}SampledData {[]} {[]}Signature {[]} {[]}Timing {[]} {[]}Meta {[]} {[]}</t>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosage</t>
   </si>
   <si>
     <t>Value of extension</t>
   </si>
   <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](extensibility.html) for a list).</t>
   </si>
 </sst>
 </file>
@@ -310,67 +326,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -417,7 +433,7 @@
   <cols>
     <col min="1" max="1" width="19.00390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
@@ -425,7 +441,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="36.0859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="43.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -442,10 +458,10 @@
     <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="19.00390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -647,18 +663,18 @@
         <v>37</v>
       </c>
       <c r="AG2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AH2" t="s" s="2">
+      <c r="AI2" t="s" s="2">
         <v>42</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>43</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -669,7 +685,7 @@
         <v>37</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>36</v>
@@ -744,7 +760,7 @@
         <v>37</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>36</v>
@@ -759,7 +775,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -778,15 +794,17 @@
         <v>36</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>54</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>36</v>
@@ -823,17 +841,19 @@
         <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AB4" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AC4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>37</v>
@@ -853,7 +873,7 @@
         <v>49</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>36</v>
@@ -863,7 +883,7 @@
         <v>37</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>36</v>
@@ -875,11 +895,11 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" t="s" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -930,13 +950,13 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>36</v>
@@ -950,7 +970,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>36</v>
@@ -960,7 +980,7 @@
         <v>37</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>36</v>
@@ -972,11 +992,11 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" t="s" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1027,13 +1047,13 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>36</v>
@@ -1047,7 +1067,7 @@
         <v>49</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>36</v>
@@ -1057,7 +1077,7 @@
         <v>37</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>36</v>
@@ -1069,11 +1089,11 @@
         <v>36</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" t="s" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1124,13 +1144,13 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>36</v>
@@ -1141,7 +1161,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1149,10 +1169,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>36</v>
@@ -1164,70 +1184,72 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M8" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE8" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="R8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>64</v>
-      </c>
       <c r="AF8" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>36</v>
@@ -1238,7 +1260,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1261,13 +1283,13 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1318,13 +1340,13 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>36</v>
